--- a/Documents/Mechanics for BlenderMan.xlsx
+++ b/Documents/Mechanics for BlenderMan.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eltim\OneDrive\Documents\Excel Documents\Game Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92AB91C-148F-4DD7-8ECD-DEB5BF30F6C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B68FC21-EBAF-4BE0-9899-64D7E630C85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A287A8CC-055B-4F44-890F-7807B9B4EDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="197">
   <si>
     <t>ACTION</t>
   </si>
@@ -165,9 +166,6 @@
     <t>Blasting(Running)</t>
   </si>
   <si>
-    <t>Spin</t>
-  </si>
-  <si>
     <t>Float</t>
   </si>
   <si>
@@ -234,9 +232,6 @@
     <t>Shops/NPCs</t>
   </si>
   <si>
-    <t>Interact - E</t>
-  </si>
-  <si>
     <t>Change Blending Mode - Right Arrow</t>
   </si>
   <si>
@@ -258,9 +253,6 @@
     <t>Jump - Space Bar</t>
   </si>
   <si>
-    <t>Blast/Heal - W</t>
-  </si>
-  <si>
     <t>W whilst walking</t>
   </si>
   <si>
@@ -297,20 +289,347 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>Spin Attack - S</t>
-  </si>
-  <si>
-    <t>Float - F</t>
-  </si>
-  <si>
-    <t>Aim - C along with Arrow Keys</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Melee Spin</t>
+  </si>
+  <si>
+    <t>Float - E</t>
+  </si>
+  <si>
+    <t>Interact - Z</t>
+  </si>
+  <si>
+    <t>Spin Attack - R</t>
+  </si>
+  <si>
+    <t>Blast/Heal - F</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Score Points</t>
+  </si>
+  <si>
+    <t>RESOURCES</t>
+  </si>
+  <si>
+    <t>Fruit Vittles</t>
+  </si>
+  <si>
+    <t>Veggie Vittles</t>
+  </si>
+  <si>
+    <t>Protein Vittles</t>
+  </si>
+  <si>
+    <t>Ions</t>
+  </si>
+  <si>
+    <t>Score Points (Currency)</t>
+  </si>
+  <si>
+    <t>Capability to continue play</t>
+  </si>
+  <si>
+    <t>Capability to use ranged atk abilities</t>
+  </si>
+  <si>
+    <t>Capability to protect health system</t>
+  </si>
+  <si>
+    <t>Capability to continue play &amp; consume vittles</t>
+  </si>
+  <si>
+    <t>Capability to purchase powerups, earn lives &amp; leaderboards</t>
+  </si>
+  <si>
+    <t>POWER-UPS</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Player is invulernable to all forms of damage</t>
+  </si>
+  <si>
+    <t>Ghost Pepper</t>
+  </si>
+  <si>
+    <t>Vindaloo Bomb</t>
+  </si>
+  <si>
+    <t>ITEMS</t>
+  </si>
+  <si>
+    <t>Cloud Feet</t>
+  </si>
+  <si>
+    <t>Incognito</t>
+  </si>
+  <si>
+    <t>Energizer</t>
+  </si>
+  <si>
+    <t>Player does not consume energy</t>
+  </si>
+  <si>
+    <t>Player is undetectable by enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player is immune from falls </t>
+  </si>
+  <si>
+    <t>Hastens player speed to max level</t>
+  </si>
+  <si>
+    <t>Regen</t>
+  </si>
+  <si>
+    <t>Player steadily restores health to max health</t>
+  </si>
+  <si>
+    <t>Bonus Multiplier</t>
+  </si>
+  <si>
+    <t>All score points gained are doubled</t>
+  </si>
+  <si>
+    <t>Vittle Multiplier</t>
+  </si>
+  <si>
+    <t>Maxes out inventory of any vittles obtained</t>
+  </si>
+  <si>
+    <t>Deadeye</t>
+  </si>
+  <si>
+    <t>Targets one enemy for instant hit</t>
+  </si>
+  <si>
+    <t>Kitchen Fire</t>
+  </si>
+  <si>
+    <t>Diet Pill</t>
+  </si>
+  <si>
+    <t>Replaces all vittles in inventory into one category</t>
+  </si>
+  <si>
+    <t>Shiny Jar</t>
+  </si>
+  <si>
+    <t>Vittles will not run away from the player</t>
+  </si>
+  <si>
+    <t>Attack abilities do not require attack power</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>All enemies in the level freeze</t>
+  </si>
+  <si>
+    <t>Destroys all enemies on the screen</t>
+  </si>
+  <si>
+    <t>Spring Boots</t>
+  </si>
+  <si>
+    <t>Player has double jump height</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Enemy Evasion/Level Traversal</t>
+  </si>
+  <si>
+    <t>Enemy Evasion</t>
+  </si>
+  <si>
+    <t>Combat/Health/Shield Regen</t>
+  </si>
+  <si>
+    <t>Lives/Level Traversal</t>
+  </si>
+  <si>
+    <t>Health Regen</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Vittles</t>
+  </si>
+  <si>
+    <t>Combat/Enemy Evasion</t>
+  </si>
+  <si>
+    <t>A grenade-like object which damages enemies</t>
+  </si>
+  <si>
+    <t>"Red Bull"</t>
+  </si>
+  <si>
+    <t>Player floats</t>
+  </si>
+  <si>
+    <t>Potion</t>
+  </si>
+  <si>
+    <t>Heals 50% of player's health</t>
+  </si>
+  <si>
+    <t>Super Potion</t>
+  </si>
+  <si>
+    <t>Fully restores player's health</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Vitamin Pill</t>
+  </si>
+  <si>
+    <t>Restores 50% of player's attack power</t>
+  </si>
+  <si>
+    <t>Power Regen</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Can of Spinach</t>
+  </si>
+  <si>
+    <t>Fully restores player's power</t>
+  </si>
+  <si>
+    <t>Shield Regen</t>
+  </si>
+  <si>
+    <t>Player's shield is restored 200% above capacity</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Restores 33% of player's energy</t>
+  </si>
+  <si>
+    <t>Energy Regen</t>
+  </si>
+  <si>
+    <t>Energy Drink</t>
+  </si>
+  <si>
+    <t>Restores 50% of player's energy</t>
+  </si>
+  <si>
+    <t>Power-ups are activated as soon as player touches them and</t>
+  </si>
+  <si>
+    <t>lasts for a limited time.</t>
+  </si>
+  <si>
+    <t>Vodka</t>
+  </si>
+  <si>
+    <t>The next powerup doubles in length of time</t>
+  </si>
+  <si>
+    <t>PowerUps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items are carried in inventory and </t>
+  </si>
+  <si>
+    <t>instantly grants the effect when used.</t>
+  </si>
+  <si>
+    <t>Lives</t>
+  </si>
+  <si>
+    <t>Grants the player one extra life</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Ion</t>
+  </si>
+  <si>
+    <t>Player fully restores energy</t>
+  </si>
+  <si>
+    <t>Invincibility</t>
+  </si>
+  <si>
+    <t>BLENDING MODE</t>
+  </si>
+  <si>
+    <t>Normal blending (all vittles restore applicable stats)</t>
+  </si>
+  <si>
+    <t>Puree</t>
+  </si>
+  <si>
+    <t>Vittles only affect power stat</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Vittles only affect shield stat</t>
+  </si>
+  <si>
+    <t>Liquefy</t>
+  </si>
+  <si>
+    <t>Vittles only health stat</t>
+  </si>
+  <si>
+    <t>Blend</t>
+  </si>
+  <si>
+    <t>Throwing Knife</t>
+  </si>
+  <si>
+    <t>A ranged attack item which damages one enemy</t>
+  </si>
+  <si>
+    <t>Half the damage the player receives is reflected on enemy</t>
+  </si>
+  <si>
+    <t>Spiky Suit</t>
+  </si>
+  <si>
+    <t>Consumes 25% of energy to fully restore all stats</t>
+  </si>
+  <si>
+    <t>Healh/Power/Shield Regen</t>
+  </si>
+  <si>
+    <t>Devil's Drink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,13 +651,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -350,10 +718,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,8 +738,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0407D8EA-A6D2-4FC8-B5AE-E6FF22D1D1CB}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,9 +1084,11 @@
     <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
     <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,22 +1096,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -730,10 +1120,16 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -741,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
@@ -765,10 +1161,16 @@
         <v>7</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -776,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
@@ -800,10 +1202,16 @@
         <v>7</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -811,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
@@ -835,18 +1243,24 @@
         <v>7</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
@@ -870,10 +1284,16 @@
         <v>7</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -881,7 +1301,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
@@ -905,10 +1325,12 @@
         <v>12</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -916,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
@@ -940,10 +1362,12 @@
         <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -951,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>11</v>
@@ -975,10 +1399,12 @@
         <v>12</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -986,7 +1412,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>31</v>
@@ -1010,10 +1436,12 @@
         <v>12</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
@@ -1045,10 +1473,12 @@
         <v>40</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
@@ -1056,7 +1486,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>31</v>
@@ -1080,10 +1510,12 @@
         <v>40</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1091,7 +1523,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>31</v>
@@ -1115,18 +1547,20 @@
         <v>40</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>31</v>
@@ -1150,18 +1584,20 @@
         <v>40</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>31</v>
@@ -1185,82 +1621,88 @@
         <v>7</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="J15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>21</v>
@@ -1290,18 +1732,20 @@
         <v>7</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>31</v>
@@ -1325,10 +1769,10 @@
         <v>7</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1340,7 +1784,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1352,10 +1796,10 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1367,12 +1811,10 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1382,12 +1824,10 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1397,12 +1837,10 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1412,10 +1850,10 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1427,10 +1865,10 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1442,7 +1880,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1454,7 +1892,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1466,7 +1904,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1478,7 +1916,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1490,7 +1928,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1502,7 +1940,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1770,4 +2208,956 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804F3AF6-6B86-4479-B4EA-6DF4AFA692F2}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>